--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3861.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3861.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.039449876065336</v>
+        <v>3.861638307571411</v>
       </c>
       <c r="B1">
-        <v>3.71588809371015</v>
+        <v>5.746891021728516</v>
       </c>
       <c r="C1">
-        <v>3.879984652099855</v>
+        <v>4.767726898193359</v>
       </c>
       <c r="D1">
-        <v>1.773703919719222</v>
+        <v>5.553970813751221</v>
       </c>
       <c r="E1">
-        <v>0.818264295240357</v>
+        <v>4.398074150085449</v>
       </c>
     </row>
   </sheetData>
